--- a/Testdata/PRISMAPage_Data_Testing.xlsx
+++ b/Testdata/PRISMAPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3332C-FE15-49E4-88C2-3DC9E2FE235A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD20378-8223-4EB1-84B4-E15077C9F402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Economic</t>
   </si>
@@ -70,21 +70,6 @@
     <t>Prisma_Population</t>
   </si>
   <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA.xlsx</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.Clinical.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.QOL.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\ICER\5. PRISMA_ICER.Econ.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\13. PRISMA_AAA_mCRPC_ID Update.xlsx</t>
-  </si>
-  <si>
     <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_Clinical.PNG</t>
   </si>
   <si>
@@ -94,9 +79,6 @@
     <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_QoL.PNG</t>
   </si>
   <si>
-    <t>ICER - ICER RRMM 2022 report</t>
-  </si>
-  <si>
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
@@ -106,10 +88,10 @@
     <t>pop1</t>
   </si>
   <si>
-    <t>pop2</t>
-  </si>
-  <si>
     <t>Clinical</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\Test_Sachin\12. PRISMA_Pfizer_IC AML Mylotarg.xlsx</t>
   </si>
 </sst>
 </file>
@@ -437,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,7 +441,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -488,16 +470,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>500</v>
@@ -512,12 +494,12 @@
         <v>2000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -535,12 +517,12 @@
         <v>2400</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>1</v>
@@ -558,12 +540,12 @@
         <v>2800</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -581,105 +563,7 @@
         <v>3200</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>501</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1501</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>601</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1201</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1801</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2401</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>701</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1401</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2101</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2801</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>801</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1601</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2401</v>
-      </c>
-      <c r="H10" s="2">
-        <v>3201</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/PRISMAPage_Data_Testing.xlsx
+++ b/Testdata/PRISMAPage_Data_Testing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD20378-8223-4EB1-84B4-E15077C9F402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7983AE9-57C2-40A7-BCF6-8BAEFEE6F959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Economic</t>
   </si>
@@ -55,18 +55,6 @@
     <t>Prisma_Image</t>
   </si>
   <si>
-    <t>OriginalStudiesNumbers</t>
-  </si>
-  <si>
-    <t>RecordsNumber</t>
-  </si>
-  <si>
-    <t>fullTextReviewRecordsNumber</t>
-  </si>
-  <si>
-    <t>totalRecordsNumber</t>
-  </si>
-  <si>
     <t>Prisma_Population</t>
   </si>
   <si>
@@ -92,6 +80,24 @@
   </si>
   <si>
     <t>\Testdata\Templates\PRISMA\Test_Sachin\12. PRISMA_Pfizer_IC AML Mylotarg.xlsx</t>
+  </si>
+  <si>
+    <t>stdy_type_locators</t>
+  </si>
+  <si>
+    <t>stdy_type_values</t>
+  </si>
+  <si>
+    <t>original_studies</t>
+  </si>
+  <si>
+    <t>records_number</t>
+  </si>
+  <si>
+    <t>fulltext_review</t>
+  </si>
+  <si>
+    <t>total_record_number</t>
   </si>
 </sst>
 </file>
@@ -133,12 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,32 +424,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="24.44140625" style="2"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -453,117 +455,87 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>500</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>600</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1200</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2400</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>700</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1400</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2100</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2800</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
         <v>800</v>
       </c>
-      <c r="F5" s="2">
-        <v>1600</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2400</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3200</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>11</v>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Testdata/PRISMAPage_Data_Testing.xlsx
+++ b/Testdata/PRISMAPage_Data_Testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7983AE9-57C2-40A7-BCF6-8BAEFEE6F959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8531B-7CA0-48D6-86A0-C98BA5B3D815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Economic</t>
   </si>
@@ -52,21 +52,6 @@
     <t>Prisma_Excel_File</t>
   </si>
   <si>
-    <t>Prisma_Image</t>
-  </si>
-  <si>
-    <t>Prisma_Population</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_Clinical.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_Econ.PNG</t>
-  </si>
-  <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\mCRPC_QoL.PNG</t>
-  </si>
-  <si>
     <t>Test_Sachin_2022 - Test_Sachin</t>
   </si>
   <si>
@@ -79,9 +64,6 @@
     <t>Clinical</t>
   </si>
   <si>
-    <t>\Testdata\Templates\PRISMA\Test_Sachin\12. PRISMA_Pfizer_IC AML Mylotarg.xlsx</t>
-  </si>
-  <si>
     <t>stdy_type_locators</t>
   </si>
   <si>
@@ -98,6 +80,78 @@
   </si>
   <si>
     <t>total_record_number</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Population_Radio_button</t>
+  </si>
+  <si>
+    <t>Test_Sachin_2022 - Test_Sachin_radio_button</t>
+  </si>
+  <si>
+    <t>pop2</t>
+  </si>
+  <si>
+    <t>pop3</t>
+  </si>
+  <si>
+    <t>pop4</t>
+  </si>
+  <si>
+    <t>slrtype</t>
+  </si>
+  <si>
+    <t>slrtype_Radio_button</t>
+  </si>
+  <si>
+    <t>Clinical_radio_button</t>
+  </si>
+  <si>
+    <t>Economic_radio_button</t>
+  </si>
+  <si>
+    <t>Quality of Life</t>
+  </si>
+  <si>
+    <t>Quality of Life_radio_button</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_radio_button</t>
+  </si>
+  <si>
+    <t>ExpectedFilenames</t>
+  </si>
+  <si>
+    <t>Protocol-Test_Sachin_2022-Test_Sachin-</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-Clinical.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-Economic.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-QOL.xlsx</t>
+  </si>
+  <si>
+    <t>\Testdata\Templates\PRISMA\PRISMA-File-RWE.xlsx</t>
+  </si>
+  <si>
+    <t>Clinical_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>Economic_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>Quality of life_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>Real-world Evidence_PRISMA-File-Template_Oncology</t>
+  </si>
+  <si>
+    <t>Template_name_prisma</t>
   </si>
 </sst>
 </file>
@@ -424,118 +478,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="17.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>500</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>900</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3">
-        <v>600</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17">
+        <v>1300</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>700</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F18">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>800</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
